--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7305EC5B-0FA8-CF41-9DC8-A1F74C71DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A1F26-E29A-BB43-95FD-927E64588476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AtkStartValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -96,10 +92,6 @@
   </si>
   <si>
     <t>PC위치를 기준으로 지정된 거리를 유지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC위치로 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -127,10 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SpacingRad</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,6 +128,25 @@
   </si>
   <si>
     <t>DeadAtkDataId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkStartParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>반지름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,14 +174,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -207,9 +206,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -221,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,23 +242,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -587,7 +601,7 @@
     <col min="13" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="54" customHeight="1"/>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="54" customHeight="1"/>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -602,16 +616,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -620,10 +634,10 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -646,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -667,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7059B60-22ED-3141-B749-77EADE951DC4}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -678,101 +692,107 @@
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="6"/>
+      <c r="F1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="D13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A1F26-E29A-BB43-95FD-927E64588476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F711A5-96C0-E042-9CFA-55039BCA5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="-30240" yWindow="13260" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>박쥐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -229,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +241,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,15 +257,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -616,16 +609,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -634,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -651,16 +644,16 @@
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -669,6 +662,102 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>501</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>502</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>504</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>10</v>
       </c>
     </row>
@@ -684,7 +773,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -696,74 +785,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="11" t="s">
-        <v>25</v>
+      <c r="E1" s="8"/>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" ht="19" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:6">

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F711A5-96C0-E042-9CFA-55039BCA5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812AF718-BB0A-7B49-91DB-C5FBB0D95E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="13260" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkCheakDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTargetUpdatePeroid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -584,18 +592,20 @@
     <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" style="2"/>
     <col min="5" max="5" width="12.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2"/>
-    <col min="12" max="12" width="14.42578125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="2"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="54" customHeight="1"/>
-    <row r="2" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="54" customHeight="1"/>
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,28 +622,34 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>500</v>
       </c>
@@ -650,22 +666,31 @@
         <v>50</v>
       </c>
       <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>501</v>
       </c>
@@ -682,22 +707,31 @@
         <v>50</v>
       </c>
       <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>502</v>
       </c>
@@ -714,22 +748,31 @@
         <v>50</v>
       </c>
       <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>504</v>
       </c>
@@ -746,19 +789,28 @@
         <v>50</v>
       </c>
       <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>10</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +825,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812AF718-BB0A-7B49-91DB-C5FBB0D95E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1FE821-C85C-DC4D-BBE0-3E9975EDE701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
@@ -39,10 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,6 +147,10 @@
   </si>
   <si>
     <t>MoveTargetUpdatePeroid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -607,46 +607,46 @@
     <row r="1" spans="1:14" s="4" customFormat="1" ht="54" customHeight="1"/>
     <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -654,13 +654,13 @@
         <v>500</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>50</v>
@@ -675,7 +675,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2">
         <v>4</v>
@@ -695,13 +695,13 @@
         <v>501</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>50</v>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2">
         <v>10</v>
@@ -736,13 +736,13 @@
         <v>502</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
         <v>6</v>
@@ -777,13 +777,13 @@
         <v>504</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>50</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
         <v>6</v>
@@ -838,63 +838,63 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19" customHeight="1">

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1FE821-C85C-DC4D-BBE0-3E9975EDE701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2C006-201B-7E48-81D7-2C6BCA8D3DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="2">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -713,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="2">
-        <v>1000</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -757,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="2">
-        <v>1000</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="2">
-        <v>1000</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +825,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1490B61-0985-4232-9CBB-217A74AFFD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3032EED-0E5D-4A70-85DE-B99E03593723}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,28 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +100,10 @@
   </si>
   <si>
     <t>GoldDropMax</t>
+  </si>
+  <si>
+    <t>ProjectileDataId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#기준 적 체력 비율</t>
@@ -128,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -278,7 +290,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{102E6BCC-7F30-4EE4-987C-9D2D2C139D4D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -297,8 +309,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
       <sheetName val="아이템 가격 밸런싱"/>
@@ -340,26 +355,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표18" displayName="표18" ref="A2:O6" totalsRowShown="0">
-  <autoFilter ref="A2:O6"/>
-  <tableColumns count="15">
-    <tableColumn id="2" name="Index"/>
-    <tableColumn id="1" name="#이름" dataDxfId="0"/>
-    <tableColumn id="3" name="MaxHp">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9C2FB05-3CF8-4120-9FDF-0D54692019CB}" name="표18" displayName="표18" ref="A2:P6" totalsRowShown="0">
+  <autoFilter ref="A2:P6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="2" xr3:uid="{FA0452E8-54F4-487F-8105-25D690092FAF}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{D2D131EE-B635-49BB-A5A3-7C666932D784}" name="#이름" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1C9E30BB-5EEB-4E92-8413-2DC2B9B6387C}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MoveType"/>
-    <tableColumn id="7" name="MoveSpd"/>
-    <tableColumn id="5" name="SpacingRad"/>
-    <tableColumn id="6" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="14" name="AtkCheckDelay"/>
-    <tableColumn id="8" name="AtkStartType"/>
-    <tableColumn id="9" name="AtkStartParam"/>
-    <tableColumn id="10" name="AtkDataId"/>
-    <tableColumn id="11" name="DeadAtkDataId"/>
-    <tableColumn id="12" name="GoldDropMin"/>
-    <tableColumn id="13" name="GoldDropMax"/>
-    <tableColumn id="15" name="#기준 적 체력 비율"/>
+    <tableColumn id="4" xr3:uid="{5989A3F5-F747-4DEF-BFB4-C26798ADE941}" name="MoveType"/>
+    <tableColumn id="7" xr3:uid="{7DA0F844-0158-414E-AAD7-710B4EF2AB4F}" name="MoveSpd"/>
+    <tableColumn id="5" xr3:uid="{375235DD-6FDD-4F32-AC30-F3884718B531}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{FDE650EC-0399-47E3-9863-572FB537B2E8}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="14" xr3:uid="{32DEADFC-F359-4B75-81E7-90AF70BB92CA}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{FE9AEBDD-E4A0-4705-9144-FFE8D7A85628}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{F112F502-08AE-4D44-B894-A61D396E0DB4}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{91726345-AF44-40D9-B6D5-3D737F5138D2}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{81E3D362-ADBF-4CDD-9338-3F49EF69B934}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{B37D4313-DF88-44DC-B944-F5217D692EF9}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{E462709D-EBD8-4CD2-B50E-1338FF1A16D0}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{1F76B62F-4B58-4175-8FA5-E1158FBC4007}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{6E7E0C7F-4E16-4481-A2A3-BA6E42B7A4F8}" name="#기준 적 체력 비율"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -382,7 +398,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -394,7 +410,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -441,6 +457,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +509,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8621BA-6C8A-4CFE-8526-F92772E3DBC1}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -653,10 +703,11 @@
     <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,25 +721,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -700,57 +751,63 @@
         <v>0</v>
       </c>
       <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>500</v>
       </c>
@@ -795,10 +852,13 @@
         <v>5</v>
       </c>
       <c r="O3">
+        <v>500</v>
+      </c>
+      <c r="P3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>501</v>
       </c>
@@ -843,10 +903,13 @@
         <v>7</v>
       </c>
       <c r="O4">
+        <v>501</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>502</v>
       </c>
@@ -891,10 +954,13 @@
         <v>7</v>
       </c>
       <c r="O5">
+        <v>502</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>503</v>
       </c>
@@ -939,6 +1005,9 @@
         <v>7</v>
       </c>
       <c r="O6">
+        <v>503</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
     </row>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1490B61-0985-4232-9CBB-217A74AFFD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{940F1568-E58A-4D9F-BD5F-F3FAED9F562A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3032EED-0E5D-4A70-85DE-B99E03593723}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176D488E-368B-43D2-B3C8-BA88CA77F5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -71,14 +71,15 @@
     <t>MoveType</t>
   </si>
   <si>
-    <t>MoveSpd</t>
+    <t>SpacingRad</t>
+  </si>
+  <si>
+    <t>MoveTargetUpdatePeroid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpacingRad</t>
-  </si>
-  <si>
-    <t>MoveTargetUpdatePeroid</t>
+    <t>MovementSpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AtkCheckDelay</t>
@@ -290,7 +291,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{102E6BCC-7F30-4EE4-987C-9D2D2C139D4D}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{696501E7-B237-48BE-AD52-A0E77FDA14C5}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -355,27 +356,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9C2FB05-3CF8-4120-9FDF-0D54692019CB}" name="표18" displayName="표18" ref="A2:P6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43C7EE4E-759F-4770-A0C5-CA2DD7E566F1}" name="표18" displayName="표18" ref="A2:P6" totalsRowShown="0">
   <autoFilter ref="A2:P6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{FA0452E8-54F4-487F-8105-25D690092FAF}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{D2D131EE-B635-49BB-A5A3-7C666932D784}" name="#이름" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{1C9E30BB-5EEB-4E92-8413-2DC2B9B6387C}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{1B774BF4-BDCE-42CE-A6FE-6CD6199358E5}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{BBBF80DB-CA88-4F93-AA72-66AA2AD44E2D}" name="#이름" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F82E2934-A7E2-4CBA-9B5D-3E37E4CE9197}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5989A3F5-F747-4DEF-BFB4-C26798ADE941}" name="MoveType"/>
-    <tableColumn id="7" xr3:uid="{7DA0F844-0158-414E-AAD7-710B4EF2AB4F}" name="MoveSpd"/>
-    <tableColumn id="5" xr3:uid="{375235DD-6FDD-4F32-AC30-F3884718B531}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{FDE650EC-0399-47E3-9863-572FB537B2E8}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="14" xr3:uid="{32DEADFC-F359-4B75-81E7-90AF70BB92CA}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{FE9AEBDD-E4A0-4705-9144-FFE8D7A85628}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{F112F502-08AE-4D44-B894-A61D396E0DB4}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{91726345-AF44-40D9-B6D5-3D737F5138D2}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{81E3D362-ADBF-4CDD-9338-3F49EF69B934}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{B37D4313-DF88-44DC-B944-F5217D692EF9}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{E462709D-EBD8-4CD2-B50E-1338FF1A16D0}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{1F76B62F-4B58-4175-8FA5-E1158FBC4007}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{6E7E0C7F-4E16-4481-A2A3-BA6E42B7A4F8}" name="#기준 적 체력 비율"/>
+    <tableColumn id="4" xr3:uid="{13BC2502-E78C-444C-9311-622CD438CABA}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{76747120-BA0E-4DAD-BA1C-A05230BE959C}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{C8821B54-8BDC-4122-BB88-75034444A1CC}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{E11ECF1A-57F8-40E5-A7B7-BE52567AC3EE}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{AB937DA9-EF56-4653-9271-EE661656293C}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{C59627FD-AFBF-4F08-A4CF-726C357CBB86}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{64BBA11C-A4E7-43DC-A7F1-F9103644B71B}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{ABDA5940-0552-4922-8347-8A22B9B1241D}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{65370435-353B-414E-A08D-3665C95C3C3A}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{4D7CA650-887E-4A58-8B9D-B872A02C6417}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{5DE4EC4B-6F82-4F7F-8A91-2A68AB21FA65}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{5994EFAF-0B0B-43C5-93C3-9157258B8B7B}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{681E3F66-F8BA-4353-BFFB-3E9EF52AC73B}" name="#기준 적 체력 비율"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -677,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8621BA-6C8A-4CFE-8526-F92772E3DBC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5C3DA0-2B7A-45DD-8FB9-75BCC648E8F1}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -693,9 +694,9 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
@@ -822,13 +823,13 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>2.5</v>
@@ -873,13 +874,13 @@
         <v>24</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
       </c>
       <c r="H4">
         <v>2.5</v>
@@ -924,13 +925,13 @@
         <v>24</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>2.5</v>
@@ -975,13 +976,13 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>2.5</v>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{940F1568-E58A-4D9F-BD5F-F3FAED9F562A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F027DB9A-DDC2-42EF-89EE-93E918475CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176D488E-368B-43D2-B3C8-BA88CA77F5B0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A94FD4E1-689F-4C3A-AB91-C721371116FC}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#평균 드랍 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>박쥐</t>
   </si>
   <si>
@@ -120,7 +124,8 @@
     <t>None</t>
   </si>
   <si>
-    <t>해골전사</t>
+    <t>야구공전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SpacingLeft</t>
@@ -129,13 +134,15 @@
     <t>AfterIdleSec</t>
   </si>
   <si>
-    <t>해골궁수</t>
+    <t>임시1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sight</t>
   </si>
   <si>
-    <t>해골워리어</t>
+    <t>임시2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -214,7 +221,10 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -291,11 +301,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{696501E7-B237-48BE-AD52-A0E77FDA14C5}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D04DA1E7-0F85-4A8F-990E-75C522434723}">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -317,8 +327,8 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
-      <sheetName val="아이템 가격 밸런싱"/>
-      <sheetName val="밸런스 시트"/>
+      <sheetName val="아이템 밸런스 시트"/>
+      <sheetName val="전투 밸런스 시트"/>
       <sheetName val="공용데이터(참고용)"/>
       <sheetName val="CharacterGameData"/>
       <sheetName val="CharacterAtkGameData"/>
@@ -356,27 +366,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43C7EE4E-759F-4770-A0C5-CA2DD7E566F1}" name="표18" displayName="표18" ref="A2:P6" totalsRowShown="0">
-  <autoFilter ref="A2:P6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{1B774BF4-BDCE-42CE-A6FE-6CD6199358E5}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{BBBF80DB-CA88-4F93-AA72-66AA2AD44E2D}" name="#이름" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F82E2934-A7E2-4CBA-9B5D-3E37E4CE9197}" name="MaxHp">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C48961C5-2BFC-4630-BDB3-C8C1D5D942A0}" name="표18" displayName="표18" ref="B2:R6" totalsRowShown="0">
+  <autoFilter ref="B2:R6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="2" xr3:uid="{1683AC6B-C994-40F9-9BE4-2BED5A8DDB32}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{ADA122E3-A026-4169-A869-56B60152015E}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4CE50262-F032-47AA-B93B-BA7AA8D947A9}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{13BC2502-E78C-444C-9311-622CD438CABA}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{76747120-BA0E-4DAD-BA1C-A05230BE959C}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{C8821B54-8BDC-4122-BB88-75034444A1CC}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{E11ECF1A-57F8-40E5-A7B7-BE52567AC3EE}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{AB937DA9-EF56-4653-9271-EE661656293C}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{C59627FD-AFBF-4F08-A4CF-726C357CBB86}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{64BBA11C-A4E7-43DC-A7F1-F9103644B71B}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{ABDA5940-0552-4922-8347-8A22B9B1241D}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{65370435-353B-414E-A08D-3665C95C3C3A}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{4D7CA650-887E-4A58-8B9D-B872A02C6417}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{5DE4EC4B-6F82-4F7F-8A91-2A68AB21FA65}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{5994EFAF-0B0B-43C5-93C3-9157258B8B7B}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{681E3F66-F8BA-4353-BFFB-3E9EF52AC73B}" name="#기준 적 체력 비율"/>
+    <tableColumn id="4" xr3:uid="{EDC6A370-8841-4AC9-87A7-D8FDFDE7CFB5}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{E3B4F7B0-E1F6-4B9F-BE44-F72FFB3EC27B}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{39C685A4-0162-4F6A-8C36-ED6A0CD37A55}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{017DE6D7-BB17-4EEB-88A4-A3CC90EDE083}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{FB7E0E28-0EA6-4F91-BFFB-181DC2DC793D}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{29677E89-8BAE-46F7-A527-113F563260F6}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{1EBBD10B-1FF6-4088-A72F-18482F84EBFB}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{B34D8A99-B14B-457E-BD07-B282280A2C21}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{C7C0582B-7AF3-4EEC-BB76-5C2A024DC496}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{3BD1C323-A8BC-4C6D-A5B3-82A6461EA148}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{E1A0ABC4-AF97-4C78-8E4B-219FB2E70B00}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{6F8B0311-0DC6-4B14-81AE-7BE44C8F47D3}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{821209D4-1338-4AA8-98E6-043C77E1A476}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{5852D4A6-ABAA-48E8-839D-BA34DC7C1BF8}" name="#평균 드랍 골드" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -678,54 +691,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5C3DA0-2B7A-45DD-8FB9-75BCC648E8F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421A2E66-A5CF-41AD-9CDC-8E7EE973F36E}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -734,14 +745,14 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
@@ -755,261 +766,289 @@
         <v>0</v>
       </c>
       <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
+    <row r="3" spans="1:18">
+      <c r="B3">
         <v>500</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.5</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>900</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>904</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>500</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.5</v>
       </c>
+      <c r="R3">
+        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
+    <row r="4" spans="1:18">
+      <c r="B4">
         <v>501</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>2.5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
         <v>901</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>501</v>
       </c>
-      <c r="P4">
-        <v>1</v>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>502</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
         <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
         <v>100</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.5</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>902</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>502</v>
       </c>
-      <c r="P5">
-        <v>1</v>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>503</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
         <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
         <v>200</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.5</v>
       </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>903</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>503</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2</v>
+      </c>
+      <c r="R6">
+        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F027DB9A-DDC2-42EF-89EE-93E918475CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABE84FE-60D4-4CBC-A4FC-20DC2CD0482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A94FD4E1-689F-4C3A-AB91-C721371116FC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F73C5B31-B060-46F7-B225-CD6836952E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,7 @@
   </si>
   <si>
     <t>박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spacing</t>
@@ -301,7 +302,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D04DA1E7-0F85-4A8F-990E-75C522434723}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6D4847B4-0226-4324-9FDE-9D75C413C252}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -366,29 +367,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C48961C5-2BFC-4630-BDB3-C8C1D5D942A0}" name="표18" displayName="표18" ref="B2:R6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA5C63CD-A4A5-4F90-A3E9-0E17ACA56925}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
   <autoFilter ref="B2:R6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="17">
-    <tableColumn id="2" xr3:uid="{1683AC6B-C994-40F9-9BE4-2BED5A8DDB32}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{ADA122E3-A026-4169-A869-56B60152015E}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4CE50262-F032-47AA-B93B-BA7AA8D947A9}" name="MaxHp">
-      <calculatedColumnFormula>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{1C3B3C90-0C05-4612-8A9E-957F259ECF46}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{BB664D8A-8DF5-4558-A54D-F2F5508AEBE2}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B0820C72-9667-43E4-BDD0-C76FABDA6BA5}" name="MaxHp">
+      <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EDC6A370-8841-4AC9-87A7-D8FDFDE7CFB5}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{E3B4F7B0-E1F6-4B9F-BE44-F72FFB3EC27B}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{39C685A4-0162-4F6A-8C36-ED6A0CD37A55}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{017DE6D7-BB17-4EEB-88A4-A3CC90EDE083}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{FB7E0E28-0EA6-4F91-BFFB-181DC2DC793D}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{29677E89-8BAE-46F7-A527-113F563260F6}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{1EBBD10B-1FF6-4088-A72F-18482F84EBFB}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{B34D8A99-B14B-457E-BD07-B282280A2C21}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{C7C0582B-7AF3-4EEC-BB76-5C2A024DC496}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{3BD1C323-A8BC-4C6D-A5B3-82A6461EA148}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{E1A0ABC4-AF97-4C78-8E4B-219FB2E70B00}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{6F8B0311-0DC6-4B14-81AE-7BE44C8F47D3}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{821209D4-1338-4AA8-98E6-043C77E1A476}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{5852D4A6-ABAA-48E8-839D-BA34DC7C1BF8}" name="#평균 드랍 골드" dataDxfId="0">
-      <calculatedColumnFormula>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{6E7DEF5A-2D75-438B-9591-8A4DB55075E8}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{DE5F6A10-345A-48E2-B95E-B365555E22E3}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{842C9A30-4BE3-49F9-8260-F8B8B892C30F}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{C159675B-2672-43A1-871A-E24115BA0A8C}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{57FC7447-BAC4-48BF-A13D-8FA869FC8898}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{86DB9369-5803-4CF5-9B04-84ABF5E6DD3C}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{1ADF1964-9FC7-4396-A3C5-0A109CF1281E}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{4302F93D-573A-4946-B04D-FF3572B918B9}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{0F4A1CDD-2186-4261-9BA2-F7C34A79BB10}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{5A778F77-571D-4EF2-9C74-93FE7A9043BF}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{1CC59177-9CFE-4FA4-860B-8FD25B3AADFF}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{A7515575-482D-43F4-80CC-51C42FF247A0}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{C0C8E67A-805B-4DAA-9BFE-A7FC821526F0}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{5793113A-C635-4F33-9FCE-41794A74CD6B}" name="#평균 드랍 골드" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -691,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421A2E66-A5CF-41AD-9CDC-8E7EE973F36E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A583AB-DB5D-4911-8883-051C39C2387A}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="B1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -722,7 +723,7 @@
     <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="2:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -825,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="2:18">
       <c r="B3">
         <v>500</v>
       </c>
@@ -833,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
         <v>50</v>
       </c>
       <c r="E3" t="s">
@@ -855,13 +856,13 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>900</v>
+        <v>601</v>
       </c>
       <c r="M3">
-        <v>904</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -876,11 +877,11 @@
         <v>0.5</v>
       </c>
       <c r="R3">
-        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="2:18">
       <c r="B4">
         <v>501</v>
       </c>
@@ -888,7 +889,7 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
         <v>100</v>
       </c>
       <c r="E4" t="s">
@@ -910,10 +911,10 @@
         <v>26</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>901</v>
+        <v>603</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -931,14 +932,11 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
+    <row r="5" spans="2:18">
       <c r="B5">
         <v>502</v>
       </c>
@@ -946,7 +944,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
         <v>100</v>
       </c>
       <c r="E5" t="s">
@@ -989,14 +987,11 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
+    <row r="6" spans="2:18">
       <c r="B6">
         <v>503</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <f>[1]!표14[적 기준 체력]*표18[[#This Row],['#기준 적 체력 비율]]</f>
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
         <v>200</v>
       </c>
       <c r="E6" t="s">
@@ -1047,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="R6">
-        <f>AVERAGE(표18[[#This Row],[GoldDropMin]],표18[[#This Row],[GoldDropMax]])</f>
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>
     </row>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABE84FE-60D4-4CBC-A4FC-20DC2CD0482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8681799D-30C4-472D-BB2F-723CEF3B0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F73C5B31-B060-46F7-B225-CD6836952E6F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64BB09AB-679E-40CC-B5B8-CE07E92AF271}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6D4847B4-0226-4324-9FDE-9D75C413C252}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F293B513-8E06-4AC7-BB92-A2A842F82359}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -367,28 +367,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA5C63CD-A4A5-4F90-A3E9-0E17ACA56925}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D337EB9-0EBE-4EC4-9C9A-314BE22ADDAD}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
   <autoFilter ref="B2:R6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="17">
-    <tableColumn id="2" xr3:uid="{1C3B3C90-0C05-4612-8A9E-957F259ECF46}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{BB664D8A-8DF5-4558-A54D-F2F5508AEBE2}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B0820C72-9667-43E4-BDD0-C76FABDA6BA5}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{795BB7AB-380B-4540-9B51-95C7E1D8FF53}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{A9A8E933-29A7-4F6F-8419-44F480B6FAB9}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4B0BE202-BEE0-4A48-BEB0-EB3CCAB562DF}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6E7DEF5A-2D75-438B-9591-8A4DB55075E8}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{DE5F6A10-345A-48E2-B95E-B365555E22E3}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{842C9A30-4BE3-49F9-8260-F8B8B892C30F}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{C159675B-2672-43A1-871A-E24115BA0A8C}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{57FC7447-BAC4-48BF-A13D-8FA869FC8898}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{86DB9369-5803-4CF5-9B04-84ABF5E6DD3C}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{1ADF1964-9FC7-4396-A3C5-0A109CF1281E}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{4302F93D-573A-4946-B04D-FF3572B918B9}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{0F4A1CDD-2186-4261-9BA2-F7C34A79BB10}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{5A778F77-571D-4EF2-9C74-93FE7A9043BF}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{1CC59177-9CFE-4FA4-860B-8FD25B3AADFF}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{A7515575-482D-43F4-80CC-51C42FF247A0}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{C0C8E67A-805B-4DAA-9BFE-A7FC821526F0}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{5793113A-C635-4F33-9FCE-41794A74CD6B}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{6E9A1D7B-7908-48B3-89FC-D45E89A63E54}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{4B3F45BE-ECF1-4479-AECE-0ECA4BB05EC7}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{262A23A8-A4DE-4F76-BE34-0FA089AE7DB9}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{7CD1C6FE-B4B2-466E-8A22-5A64E66B45E9}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{A33B5A77-5AE2-4C43-A3B9-94F83F58C967}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{EB7B8735-ACA9-4F98-946A-0538C3D5CA53}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{3A28C3A3-7E9F-4DDD-8006-020C8AB32A73}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{45BD46E2-B7DE-4544-B7C8-5D2546410852}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{805DAE83-6D30-46DC-83F6-FD16BE18204E}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{CECEDC28-D5FF-469E-81A5-37709767B1E6}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{3922E56B-8BA1-4FF1-9608-6EBAB3B6B516}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{FB492359-2E29-46DE-A85A-9E8C9AF4765D}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{ACDB5DF4-F1DD-46F3-9F56-EF98B741EFAE}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{82F69353-5132-4898-8CA0-8CAEFAF8F68F}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -692,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A583AB-DB5D-4911-8883-051C39C2387A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8E89A-477C-470B-9004-FFC5D37CF0A7}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8681799D-30C4-472D-BB2F-723CEF3B0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD97122-906E-4092-82C3-2332EE9E738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64BB09AB-679E-40CC-B5B8-CE07E92AF271}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1FA650F-B779-46EA-92BE-5BB6A4888570}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F293B513-8E06-4AC7-BB92-A2A842F82359}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CDE61956-ADCC-468A-BE50-4DDA4ABC97DC}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -367,28 +367,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D337EB9-0EBE-4EC4-9C9A-314BE22ADDAD}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBB52253-EF51-41E1-9967-317B12827A3C}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
   <autoFilter ref="B2:R6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="17">
-    <tableColumn id="2" xr3:uid="{795BB7AB-380B-4540-9B51-95C7E1D8FF53}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{A9A8E933-29A7-4F6F-8419-44F480B6FAB9}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4B0BE202-BEE0-4A48-BEB0-EB3CCAB562DF}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{78180381-D580-49B2-9990-6AFAF5563217}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{A8E535DA-99FB-4A7C-82B5-76BCABFC194F}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{267BD8F2-E3B4-4E3D-A4E7-90D83C394D11}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6E9A1D7B-7908-48B3-89FC-D45E89A63E54}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{4B3F45BE-ECF1-4479-AECE-0ECA4BB05EC7}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{262A23A8-A4DE-4F76-BE34-0FA089AE7DB9}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{7CD1C6FE-B4B2-466E-8A22-5A64E66B45E9}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{A33B5A77-5AE2-4C43-A3B9-94F83F58C967}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{EB7B8735-ACA9-4F98-946A-0538C3D5CA53}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{3A28C3A3-7E9F-4DDD-8006-020C8AB32A73}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{45BD46E2-B7DE-4544-B7C8-5D2546410852}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{805DAE83-6D30-46DC-83F6-FD16BE18204E}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{CECEDC28-D5FF-469E-81A5-37709767B1E6}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{3922E56B-8BA1-4FF1-9608-6EBAB3B6B516}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{FB492359-2E29-46DE-A85A-9E8C9AF4765D}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{ACDB5DF4-F1DD-46F3-9F56-EF98B741EFAE}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{82F69353-5132-4898-8CA0-8CAEFAF8F68F}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{968FD626-CB08-480A-822B-2F3252A94CB4}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{3A678BAC-0311-4343-BB42-2BCA6A76A110}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{CC72744F-42B3-413D-A99A-1C9046775438}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{73AEAD9F-DB20-4E57-8130-2AEF7A8C7582}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{B1FFBD55-6284-4540-8A2C-C46DDBF231F7}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{366AB338-2029-40AC-8BD9-7CA941D81077}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{8460A170-495D-4331-BF3A-5738DCB60236}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{627275AB-1763-4E62-AEAF-F12E8CFE82F6}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{3EA8A041-000D-46CD-98A1-787F42FC844C}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{78942B8E-AF5A-45A3-9528-876BA8DFA4F3}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{60C7E2FB-B392-4DE7-9F92-0D0EFA901459}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{12E307B5-C74E-45DD-B715-10A4040D45FD}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{0A058331-2F95-442A-A897-67B38A1C5BB4}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{F9E7B41D-1ABE-4A17-83B4-23FDD63A4E42}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8E89A-477C-470B-9004-FFC5D37CF0A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60D6BE8-DC27-4106-ABB2-3E7FC25AF34E}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD97122-906E-4092-82C3-2332EE9E738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B55C06-5875-4F71-9CA8-9182D2FE481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1FA650F-B779-46EA-92BE-5BB6A4888570}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06E85DFB-E37F-4C7F-A119-F63CE43FEB13}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CDE61956-ADCC-468A-BE50-4DDA4ABC97DC}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4303692B-B9EE-4A8B-9FC3-093A1D1A7D73}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -367,28 +367,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBB52253-EF51-41E1-9967-317B12827A3C}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE5F7BEC-B08F-43FA-AC11-337C757BF1F9}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
   <autoFilter ref="B2:R6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="17">
-    <tableColumn id="2" xr3:uid="{78180381-D580-49B2-9990-6AFAF5563217}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{A8E535DA-99FB-4A7C-82B5-76BCABFC194F}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{267BD8F2-E3B4-4E3D-A4E7-90D83C394D11}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{4E4FBD1D-994B-4B31-B32A-F21E46DA5FAC}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{E8DCDB81-D26F-4D32-AC41-87A249315794}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{46746311-E734-49CE-9434-09D3A81CC399}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{968FD626-CB08-480A-822B-2F3252A94CB4}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{3A678BAC-0311-4343-BB42-2BCA6A76A110}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{CC72744F-42B3-413D-A99A-1C9046775438}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{73AEAD9F-DB20-4E57-8130-2AEF7A8C7582}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{B1FFBD55-6284-4540-8A2C-C46DDBF231F7}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{366AB338-2029-40AC-8BD9-7CA941D81077}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{8460A170-495D-4331-BF3A-5738DCB60236}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{627275AB-1763-4E62-AEAF-F12E8CFE82F6}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{3EA8A041-000D-46CD-98A1-787F42FC844C}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{78942B8E-AF5A-45A3-9528-876BA8DFA4F3}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{60C7E2FB-B392-4DE7-9F92-0D0EFA901459}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{12E307B5-C74E-45DD-B715-10A4040D45FD}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{0A058331-2F95-442A-A897-67B38A1C5BB4}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{F9E7B41D-1ABE-4A17-83B4-23FDD63A4E42}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{911E5B65-86D9-4296-878D-076E6B399E5F}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{126E64CB-1BB7-4545-AC3D-08C92387BC82}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{FA7D20E2-6AEC-42B4-BC95-201A7DFF2221}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{A33C700B-53BF-4022-A626-24D857B72DDA}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{8EF169DC-044E-434C-A395-AA561CB272A1}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{C0752531-DF79-4B88-AEC3-5E8DE50BB373}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{E4C8E922-1C66-4328-A67C-614092C3DC6C}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{AA8AC920-247B-4577-9051-7130D24E759E}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{5D7C6BB8-5A87-4BC6-AECB-B7797B8FC0A7}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{94E7382F-E838-467E-896D-2A0C070D715F}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{1317DD1D-61CE-4C73-A8B5-35BFDD45FAC4}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{AF867E72-A00D-410D-B736-E56FABC14716}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{F7C0F55A-4236-4B16-AD8B-A1E41AB555DB}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{5C7B9998-FFAA-435D-96F5-B74EB47B1BE8}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -692,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60D6BE8-DC27-4106-ABB2-3E7FC25AF34E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824B159-5CFF-41B8-828D-90BB91F71802}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B55C06-5875-4F71-9CA8-9182D2FE481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEA3EF5-4763-4CBE-B8BD-71320BE0F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06E85DFB-E37F-4C7F-A119-F63CE43FEB13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5A0A11F-C8C9-4468-9980-1271ABD0E6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,7 +125,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>야구공전사</t>
+    <t>야구공포수1-방사형8발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>AfterIdleSec</t>
   </si>
   <si>
-    <t>임시1</t>
+    <t>야구공포수2-플레이어조준 기관총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spacing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sight</t>
-  </si>
-  <si>
-    <t>임시2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4303692B-B9EE-4A8B-9FC3-093A1D1A7D73}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3A05245E-B66E-4FF0-A33C-46D52586A98B}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -367,28 +367,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE5F7BEC-B08F-43FA-AC11-337C757BF1F9}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R6" totalsRowShown="0">
-  <autoFilter ref="B2:R6" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECEAB017-7AAC-44E3-975D-87C9B5835C69}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R5" totalsRowShown="0">
+  <autoFilter ref="B2:R5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="17">
-    <tableColumn id="2" xr3:uid="{4E4FBD1D-994B-4B31-B32A-F21E46DA5FAC}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{E8DCDB81-D26F-4D32-AC41-87A249315794}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{46746311-E734-49CE-9434-09D3A81CC399}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{17525D3B-336D-45BD-9A8E-85AC86C2F4E3}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{697EF489-847B-453C-B18B-1AF18C6DE6EB}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{465F6633-42F9-41F0-A9E5-D5E1FB553F67}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{911E5B65-86D9-4296-878D-076E6B399E5F}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{126E64CB-1BB7-4545-AC3D-08C92387BC82}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{FA7D20E2-6AEC-42B4-BC95-201A7DFF2221}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{A33C700B-53BF-4022-A626-24D857B72DDA}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{8EF169DC-044E-434C-A395-AA561CB272A1}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{C0752531-DF79-4B88-AEC3-5E8DE50BB373}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{E4C8E922-1C66-4328-A67C-614092C3DC6C}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{AA8AC920-247B-4577-9051-7130D24E759E}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{5D7C6BB8-5A87-4BC6-AECB-B7797B8FC0A7}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{94E7382F-E838-467E-896D-2A0C070D715F}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{1317DD1D-61CE-4C73-A8B5-35BFDD45FAC4}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{AF867E72-A00D-410D-B736-E56FABC14716}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{F7C0F55A-4236-4B16-AD8B-A1E41AB555DB}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{5C7B9998-FFAA-435D-96F5-B74EB47B1BE8}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{659CAC85-AE13-4DA9-84C5-2C37F415A506}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{AF629652-7BE5-4D2B-AA7F-F0D8707DA09F}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{E16DFF1C-9355-4386-8698-1BC2DC9E39F1}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{3B167E99-0292-4190-BADA-1486DE9D689A}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{B5D5DDE9-A797-47B4-B76F-C5EED3F25A2F}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{F9393F73-4F02-422F-B3A7-CCCA291303C1}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{3B96513C-57BC-4853-970F-08D05B92ED30}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{06BF2003-2118-46DB-9985-D6123DC57A96}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{AFC290A1-2934-4240-A8F6-FC5533C4B35C}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{3BDFD5D7-6F27-4EBF-9615-BDE30ED9A21A}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{5C97CD42-C929-4131-BB29-174F9FC17C15}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{8C3DC60F-D5A6-422F-9C82-0FB15FA900E8}" name="ProjectileDataId"/>
+    <tableColumn id="15" xr3:uid="{39C2A40F-207F-4B23-B125-24A880076EC1}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{F3B75066-17FF-4E50-9ACA-25222DC3DA4A}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -692,20 +692,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824B159-5CFF-41B8-828D-90BB91F71802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3E46A1-36E5-4846-80E9-FDC9CF3327AF}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:R6"/>
+  <dimension ref="B1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -841,16 +841,16 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -896,13 +896,13 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2.5</v>
@@ -911,10 +911,10 @@
         <v>26</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="P4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -948,28 +948,28 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>2.5</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>902</v>
+        <v>601</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -987,61 +987,6 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6">
-        <v>503</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>903</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <v>503</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEA3EF5-4763-4CBE-B8BD-71320BE0F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02F4DCB-10BE-400A-9B54-469DD0BC2D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5A0A11F-C8C9-4468-9980-1271ABD0E6CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39316A78-C7EF-4714-9E2F-BB7AF77D614B}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -107,6 +111,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#기준 적 체력 비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +133,10 @@
     <t>None</t>
   </si>
   <si>
+    <t>Prefabs/Enemy_bat.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>야구공포수1-방사형8발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +145,10 @@
   </si>
   <si>
     <t>AfterIdleSec</t>
+  </si>
+  <si>
+    <t>Prefabs/Enemy_pitcher.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야구공포수2-플레이어조준 기관총</t>
@@ -302,7 +318,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3A05245E-B66E-4FF0-A33C-46D52586A98B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{371BBE9A-79D4-4FEE-B55B-762A57E45B55}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -367,28 +383,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECEAB017-7AAC-44E3-975D-87C9B5835C69}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:R5" totalsRowShown="0">
-  <autoFilter ref="B2:R5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="2" xr3:uid="{17525D3B-336D-45BD-9A8E-85AC86C2F4E3}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{697EF489-847B-453C-B18B-1AF18C6DE6EB}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{465F6633-42F9-41F0-A9E5-D5E1FB553F67}" name="MaxHp">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB921C5-E3CC-46AA-8EFF-554589A7B2B7}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
+  <autoFilter ref="B2:S5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="2" xr3:uid="{7A4DE9D4-3754-45FD-9421-39D51345E3A5}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{B5DB2DEF-98E9-497C-AC6E-03A55BB316E9}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5C0B3025-0052-407F-967F-1030657765B3}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{659CAC85-AE13-4DA9-84C5-2C37F415A506}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{AF629652-7BE5-4D2B-AA7F-F0D8707DA09F}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{E16DFF1C-9355-4386-8698-1BC2DC9E39F1}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{3B167E99-0292-4190-BADA-1486DE9D689A}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{B5D5DDE9-A797-47B4-B76F-C5EED3F25A2F}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{F9393F73-4F02-422F-B3A7-CCCA291303C1}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{3B96513C-57BC-4853-970F-08D05B92ED30}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{06BF2003-2118-46DB-9985-D6123DC57A96}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{AFC290A1-2934-4240-A8F6-FC5533C4B35C}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{3BDFD5D7-6F27-4EBF-9615-BDE30ED9A21A}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{5C97CD42-C929-4131-BB29-174F9FC17C15}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{8C3DC60F-D5A6-422F-9C82-0FB15FA900E8}" name="ProjectileDataId"/>
-    <tableColumn id="15" xr3:uid="{39C2A40F-207F-4B23-B125-24A880076EC1}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{F3B75066-17FF-4E50-9ACA-25222DC3DA4A}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{CDED4A92-0B74-4662-913C-3B82828A8640}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{8DDC8A6F-F97D-422E-9C18-1603F75B49AD}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{8B28EBD2-DF50-4742-921C-0284149DD4DE}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{2D5C63B7-7D4E-4DB4-9BF1-EB2E94048D90}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{54E8C54D-B18F-4A01-A59E-836CD3D4C553}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{1AEBD785-83C2-4334-A678-24775E8620C2}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{2867B296-8371-43E1-8D3F-B8CABECAD735}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{233B6C1B-A538-451F-B7F3-E9872A6E874C}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{978FFCAB-1686-4F3D-B0F4-C3DD7BA9174A}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{05A4F2D7-A619-433E-A71D-C4A8F033EAB4}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{B0B9A32F-3356-4D33-91E4-9D6C6F0823F2}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{3A650B84-BA15-44D2-A0D7-081165C02927}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{8CE64C89-C9F3-4ED7-A66D-9A0BF91C3E9D}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{009A00E3-A532-42E1-ADC1-6C16B74733D0}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{C2404C5E-EAB9-4E58-B71F-5C93E3BEAE0B}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -692,14 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3E46A1-36E5-4846-80E9-FDC9CF3327AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2659F9C0-CC37-4205-9D53-FF93E53CD9C8}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:R5"/>
+  <dimension ref="B1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -719,11 +736,12 @@
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -770,75 +788,81 @@
         <v>0</v>
       </c>
       <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
       <c r="R2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:19">
       <c r="B3">
         <v>500</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -853,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -873,27 +897,30 @@
       <c r="P3">
         <v>501</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3">
         <v>0.5</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -908,7 +935,7 @@
         <v>2.5</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>2.5</v>
@@ -928,27 +955,30 @@
       <c r="P4">
         <v>502</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>502</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -963,7 +993,7 @@
         <v>2.5</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -983,10 +1013,13 @@
       <c r="P5">
         <v>502</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02F4DCB-10BE-400A-9B54-469DD0BC2D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7DAD9B-3454-4910-9C84-6788877B2CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39316A78-C7EF-4714-9E2F-BB7AF77D614B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E100EEB-053E-4549-AD5A-DE6BFE298040}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{371BBE9A-79D4-4FEE-B55B-762A57E45B55}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0D728F57-02E9-4446-9B66-98000390623F}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -383,29 +383,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB921C5-E3CC-46AA-8EFF-554589A7B2B7}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B5EAC57-1BED-499C-A438-8DE511AFE150}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
   <autoFilter ref="B2:S5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{7A4DE9D4-3754-45FD-9421-39D51345E3A5}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{B5DB2DEF-98E9-497C-AC6E-03A55BB316E9}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5C0B3025-0052-407F-967F-1030657765B3}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{239B7090-02E3-45B9-A551-0E654D69DBEF}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{855A7B53-1C4E-4021-95AF-6DC93A36BFC7}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0067C511-769F-4627-84C4-D5903B201E76}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CDED4A92-0B74-4662-913C-3B82828A8640}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{8DDC8A6F-F97D-422E-9C18-1603F75B49AD}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{8B28EBD2-DF50-4742-921C-0284149DD4DE}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{2D5C63B7-7D4E-4DB4-9BF1-EB2E94048D90}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{54E8C54D-B18F-4A01-A59E-836CD3D4C553}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{1AEBD785-83C2-4334-A678-24775E8620C2}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{2867B296-8371-43E1-8D3F-B8CABECAD735}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{233B6C1B-A538-451F-B7F3-E9872A6E874C}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{978FFCAB-1686-4F3D-B0F4-C3DD7BA9174A}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{05A4F2D7-A619-433E-A71D-C4A8F033EAB4}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{B0B9A32F-3356-4D33-91E4-9D6C6F0823F2}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{3A650B84-BA15-44D2-A0D7-081165C02927}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{8CE64C89-C9F3-4ED7-A66D-9A0BF91C3E9D}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{009A00E3-A532-42E1-ADC1-6C16B74733D0}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{C2404C5E-EAB9-4E58-B71F-5C93E3BEAE0B}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{E724A142-989F-42C8-9CEF-24D04E42A438}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{1DC5AE20-EAF8-47E7-907E-24ABE56D9EE8}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{52D72AD1-7392-4EBE-808B-CE163692D894}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{AFA41265-21DF-44F6-9522-E21A5C794F28}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{6B8188DB-25F9-4D2A-94AF-8051AAFF7758}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{98BC03A6-C0A9-4C8C-8FB9-4AA576A7A8A2}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{5A3977B6-0BF9-4C14-A241-71A7D62E8FCE}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{D86632E4-305E-4248-8051-63F8355DD1C4}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{77F8599A-F4E7-4F96-9810-C4F536FB5F71}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{57BE381D-7419-4C25-9571-A2627479BC07}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{78AED926-FF92-4D22-A52B-AFCA8CD0393B}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{1D175AC5-8036-4AFC-A1E3-53F9E94AEA93}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{4A7E1121-025D-42BC-BEBC-96C4F73089DF}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{7E5F4084-F7DA-4A39-A799-4C395E992488}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{C408DB0D-5436-426E-82D4-7A6C60F156D1}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -709,14 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2659F9C0-CC37-4205-9D53-FF93E53CD9C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67BA39-7FD6-4B89-9663-2F6443BFCF6E}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7DAD9B-3454-4910-9C84-6788877B2CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9911236E-13B8-4DF3-B83D-D64848BA94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E100EEB-053E-4549-AD5A-DE6BFE298040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BAE1CCC-D72F-44E6-9619-E59A90C3A5F2}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0D728F57-02E9-4446-9B66-98000390623F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E8E1EB59-44CC-459E-BC42-3563FDFBCFFF}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -383,29 +383,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B5EAC57-1BED-499C-A438-8DE511AFE150}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FE9378B-C643-4659-BC17-75B8AC41CE40}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
   <autoFilter ref="B2:S5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{239B7090-02E3-45B9-A551-0E654D69DBEF}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{855A7B53-1C4E-4021-95AF-6DC93A36BFC7}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{0067C511-769F-4627-84C4-D5903B201E76}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{A7EE68D4-D7C2-42C2-B9EB-6DEDC2B8B310}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{810335F2-1D6F-4F2B-B7F6-78C004A9D619}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C6C07539-CAA4-4558-A415-372190628997}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E724A142-989F-42C8-9CEF-24D04E42A438}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{1DC5AE20-EAF8-47E7-907E-24ABE56D9EE8}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{52D72AD1-7392-4EBE-808B-CE163692D894}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{AFA41265-21DF-44F6-9522-E21A5C794F28}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{6B8188DB-25F9-4D2A-94AF-8051AAFF7758}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{98BC03A6-C0A9-4C8C-8FB9-4AA576A7A8A2}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{5A3977B6-0BF9-4C14-A241-71A7D62E8FCE}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{D86632E4-305E-4248-8051-63F8355DD1C4}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{77F8599A-F4E7-4F96-9810-C4F536FB5F71}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{57BE381D-7419-4C25-9571-A2627479BC07}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{78AED926-FF92-4D22-A52B-AFCA8CD0393B}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{1D175AC5-8036-4AFC-A1E3-53F9E94AEA93}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{4A7E1121-025D-42BC-BEBC-96C4F73089DF}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{7E5F4084-F7DA-4A39-A799-4C395E992488}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{C408DB0D-5436-426E-82D4-7A6C60F156D1}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{8D4C5112-BB2C-4097-B92C-486CC794034D}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{6EF03444-C4EC-4BF4-A6C7-E445ABB03CD9}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{AA9738EF-EA2C-459E-A7EC-BC4736553C46}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{4FC1E3BD-56E0-44C1-B4BE-3D55999245EA}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{08EB7A01-7F93-4878-B65A-8527240FC1A7}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{659A559E-E790-4B59-8186-8661FDF43E3E}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{05A8C461-CE26-4904-B8A3-5E1AF5F68EFE}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{0A583CAA-D21B-4F5E-980B-8F4339C86C4E}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{554E3670-3879-454E-9BD3-044003BFA2AE}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{EE03DF3B-DEE9-4438-8B2D-8F9047724C91}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{B786E0E0-E2EF-47DD-8F1A-A2FD47838169}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{E4128F58-2199-4E40-8C1F-F47E77A80DAF}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{796B7F2D-12C3-431E-A6EB-4F76F6F9AB72}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{80D2A987-E1C3-46A5-AA0C-8340A89AB18B}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{450AACB1-033D-41C0-AC64-30B356EE4657}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -709,14 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67BA39-7FD6-4B89-9663-2F6443BFCF6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B85DCBB-126F-4880-90A9-5BE530558E9F}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -932,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>600</v>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9911236E-13B8-4DF3-B83D-D64848BA94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD12D181-364E-49E0-BEC0-0516DF758243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BAE1CCC-D72F-44E6-9619-E59A90C3A5F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C5F64F0-BB17-478D-AF47-71ED07598EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E8E1EB59-44CC-459E-BC42-3563FDFBCFFF}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D615AE38-D235-4A8D-9729-B517043A1CE7}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -383,29 +383,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FE9378B-C643-4659-BC17-75B8AC41CE40}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88901339-D562-46C7-AD73-1B7284C9E573}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
   <autoFilter ref="B2:S5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{A7EE68D4-D7C2-42C2-B9EB-6DEDC2B8B310}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{810335F2-1D6F-4F2B-B7F6-78C004A9D619}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C6C07539-CAA4-4558-A415-372190628997}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{2198FE00-940B-473E-9C3E-0B384A735C32}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{2D36601C-BA3A-4CB1-8D2F-FF2D828B962E}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{22CCD513-B0A8-4562-BDDD-FD82984D6AD1}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8D4C5112-BB2C-4097-B92C-486CC794034D}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{6EF03444-C4EC-4BF4-A6C7-E445ABB03CD9}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{AA9738EF-EA2C-459E-A7EC-BC4736553C46}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{4FC1E3BD-56E0-44C1-B4BE-3D55999245EA}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{08EB7A01-7F93-4878-B65A-8527240FC1A7}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{659A559E-E790-4B59-8186-8661FDF43E3E}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{05A8C461-CE26-4904-B8A3-5E1AF5F68EFE}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{0A583CAA-D21B-4F5E-980B-8F4339C86C4E}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{554E3670-3879-454E-9BD3-044003BFA2AE}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{EE03DF3B-DEE9-4438-8B2D-8F9047724C91}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{B786E0E0-E2EF-47DD-8F1A-A2FD47838169}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{E4128F58-2199-4E40-8C1F-F47E77A80DAF}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{796B7F2D-12C3-431E-A6EB-4F76F6F9AB72}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{80D2A987-E1C3-46A5-AA0C-8340A89AB18B}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{450AACB1-033D-41C0-AC64-30B356EE4657}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{9282C827-6556-445E-96C8-B364720A2840}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{189D09E8-EF0D-4C2E-8909-8FF2A63DE458}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{EE955C86-3868-421A-95B3-7CBD78833674}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{6194EC39-F68D-49EB-9EA5-12D1508C68FE}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{E708576B-2BA5-46D4-9E82-6F2343DB78B4}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{261A84CD-8828-48A2-9376-FAE99F399FD1}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{95C0C285-55B7-435C-A6FB-258541E022BB}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{6B43DCD7-DD1F-42D0-93BB-A38968FF4A7A}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{CB75DC97-A454-4DBA-ABF5-8388A14D2090}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{69B23D63-FB28-4CC1-906B-5A0909FCE107}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{C3EE0222-935A-41D6-8AD5-2FB37C7D0230}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{B500FE8D-1457-457F-AFFE-87F3713FA6FA}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{EE1F9928-422B-4621-B5A6-85675E1BC761}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{A414EA1A-FCD9-4874-B122-7E048090A3F8}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{E38F66A0-2307-486A-974F-4392AD81F722}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -709,14 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B85DCBB-126F-4880-90A9-5BE530558E9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA254252-7567-4653-93EF-FD835481F462}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -923,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>1.5</v>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>601</v>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD12D181-364E-49E0-BEC0-0516DF758243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA83003-AB1F-4F49-B0F2-95F2A962B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C5F64F0-BB17-478D-AF47-71ED07598EA0}"/>
+    <workbookView xWindow="5820" yWindow="6340" windowWidth="29040" windowHeight="15840" xr2:uid="{6C5F64F0-BB17-478D-AF47-71ED07598EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -337,11 +337,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
       <sheetName val="아이템 밸런스 시트"/>
@@ -359,6 +356,7 @@
       <sheetName val="ItemEffectGameData"/>
       <sheetName val="ItemResourceGameData"/>
       <sheetName val="LocaleGameData"/>
+      <sheetName val="_QT_Develop_Table"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -377,6 +375,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -715,30 +714,30 @@
   </sheetPr>
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
@@ -953,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="P4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q4" t="s">
         <v>30</v>
@@ -1011,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="P5">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA83003-AB1F-4F49-B0F2-95F2A962B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8002EC76-E660-49CE-B26E-A2818C6E3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="6340" windowWidth="29040" windowHeight="15840" xr2:uid="{6C5F64F0-BB17-478D-AF47-71ED07598EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05FC0C97-2611-4C23-A2D8-3E138017ACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,7 +318,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D615AE38-D235-4A8D-9729-B517043A1CE7}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{85944B1C-1B71-44FB-87AE-03AA8E33F1CD}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -337,8 +337,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
       <sheetName val="아이템 밸런스 시트"/>
@@ -356,7 +359,6 @@
       <sheetName val="ItemEffectGameData"/>
       <sheetName val="ItemResourceGameData"/>
       <sheetName val="LocaleGameData"/>
-      <sheetName val="_QT_Develop_Table"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -375,36 +377,35 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88901339-D562-46C7-AD73-1B7284C9E573}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0CF1E84-A538-4909-B820-4001297E70C3}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
   <autoFilter ref="B2:S5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{2198FE00-940B-473E-9C3E-0B384A735C32}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{2D36601C-BA3A-4CB1-8D2F-FF2D828B962E}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{22CCD513-B0A8-4562-BDDD-FD82984D6AD1}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{4DC80A19-0989-4FAE-A6CA-1F689A5B4ACB}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{13307D8C-A571-4AB9-B5D2-FD605838F10A}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8154C520-9E77-4688-9050-FFAE39B98B28}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9282C827-6556-445E-96C8-B364720A2840}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{189D09E8-EF0D-4C2E-8909-8FF2A63DE458}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{EE955C86-3868-421A-95B3-7CBD78833674}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{6194EC39-F68D-49EB-9EA5-12D1508C68FE}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{E708576B-2BA5-46D4-9E82-6F2343DB78B4}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{261A84CD-8828-48A2-9376-FAE99F399FD1}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{95C0C285-55B7-435C-A6FB-258541E022BB}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{6B43DCD7-DD1F-42D0-93BB-A38968FF4A7A}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{CB75DC97-A454-4DBA-ABF5-8388A14D2090}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{69B23D63-FB28-4CC1-906B-5A0909FCE107}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{C3EE0222-935A-41D6-8AD5-2FB37C7D0230}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{B500FE8D-1457-457F-AFFE-87F3713FA6FA}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{EE1F9928-422B-4621-B5A6-85675E1BC761}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{A414EA1A-FCD9-4874-B122-7E048090A3F8}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{E38F66A0-2307-486A-974F-4392AD81F722}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{843600A4-19F0-4B51-BF94-7EB2A1306204}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{86D6ECE9-0914-4E5E-BA52-E7DC7D8CA3CC}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{DFFD473A-20D1-4C0B-B098-370DA2F641AB}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{AA731D33-68E1-4710-99A9-C2E77ADFCB35}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{72B31D57-3AD7-47CF-AB32-2E4279208EA2}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{39485384-5EB5-4DFA-8197-80B5ACA5CE16}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{3DA2BD3C-5821-455F-BB62-3AF52BEF8E1B}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{68B66F0C-D305-4C4A-9FB8-4EF966C55F2A}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{45F3642A-F9FF-44CE-B493-F96014ED6C3E}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{61FB420B-848E-44AC-8E68-F7C18617A799}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{5FF6E651-4AB7-4487-89A5-6C1847735603}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{75428398-DA6B-4A0C-824E-E78AE01B6F62}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{903FD2D0-8190-4AEA-9DCD-B93035F91DC7}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{866317F7-DF7E-4C7B-BBCC-67DD48195EC1}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{77683DF2-3B97-4FBA-98FC-94F2EF00976E}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -708,36 +709,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA254252-7567-4653-93EF-FD835481F462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF081806-F5BE-4646-8C3A-C2D119DB77DD}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
@@ -792,6 +793,9 @@
       <c r="R1" t="s">
         <v>1</v>
       </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
@@ -925,13 +929,13 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -983,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8002EC76-E660-49CE-B26E-A2818C6E3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF184561-F2D3-43B1-A584-D4E719F2C0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05FC0C97-2611-4C23-A2D8-3E138017ACB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0BDD1DB-A1A1-459C-8356-F43579C60DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{85944B1C-1B71-44FB-87AE-03AA8E33F1CD}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6214BF7A-57C6-4DE6-9A73-734C3611EDE9}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -383,29 +383,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0CF1E84-A538-4909-B820-4001297E70C3}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FD7A209-40BE-4EBD-8208-CF867C57D2F0}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
   <autoFilter ref="B2:S5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{4DC80A19-0989-4FAE-A6CA-1F689A5B4ACB}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{13307D8C-A571-4AB9-B5D2-FD605838F10A}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{8154C520-9E77-4688-9050-FFAE39B98B28}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{EDA2A827-BD94-4DFA-A8B9-AE6631A3A9B3}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{B9C4B4C2-4830-4151-BAFC-3601623D2D99}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{32886B9E-AF66-4A2A-9F54-113EE3E7A15D}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{843600A4-19F0-4B51-BF94-7EB2A1306204}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{86D6ECE9-0914-4E5E-BA52-E7DC7D8CA3CC}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{DFFD473A-20D1-4C0B-B098-370DA2F641AB}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{AA731D33-68E1-4710-99A9-C2E77ADFCB35}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{72B31D57-3AD7-47CF-AB32-2E4279208EA2}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{39485384-5EB5-4DFA-8197-80B5ACA5CE16}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{3DA2BD3C-5821-455F-BB62-3AF52BEF8E1B}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{68B66F0C-D305-4C4A-9FB8-4EF966C55F2A}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{45F3642A-F9FF-44CE-B493-F96014ED6C3E}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{61FB420B-848E-44AC-8E68-F7C18617A799}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{5FF6E651-4AB7-4487-89A5-6C1847735603}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{75428398-DA6B-4A0C-824E-E78AE01B6F62}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{903FD2D0-8190-4AEA-9DCD-B93035F91DC7}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{866317F7-DF7E-4C7B-BBCC-67DD48195EC1}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{77683DF2-3B97-4FBA-98FC-94F2EF00976E}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{0031CFDF-FE02-412B-9533-97FB3D12CBC5}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{1E12F945-6364-46AB-BF0F-27570DC56A72}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{CB5AFBD0-9F16-4C73-AF38-D5DDA896CF8C}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{5EB14580-F215-445A-A020-7005C4C23F05}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{A281EC06-F7C4-460A-9463-B5212F2FC1BA}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{3EF851D8-BC10-4EB0-BF0A-B568F697A587}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{C717F6C9-A258-45B6-8BDD-C33AF748E16C}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{42265B14-3758-4E51-A38B-D19355A0BBA3}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{7DD5CA0A-A6ED-43F4-8A60-6E5F02A2F003}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{E5E2C438-5BD1-4D2D-8863-4C1269FF5A6C}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{AE16A127-166E-4EC7-845B-35448C644488}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{8BB6F8E1-1AA3-4D3C-94F1-04B417D6018C}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{FC8ABCA1-115D-47F6-9F80-79EE3B8F27FB}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{253D5C8F-D5C1-4760-9ABC-DBFD5BAB0BA8}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{74998F43-7D04-451D-990D-C21493F3F2A0}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF081806-F5BE-4646-8C3A-C2D119DB77DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17792F1-E584-48FD-8DCF-B911A83F33ED}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF184561-F2D3-43B1-A584-D4E719F2C0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BE119E-6705-4D48-8FB8-7A416BD1FF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0BDD1DB-A1A1-459C-8356-F43579C60DBF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26AEEC68-E3D6-4126-A996-A8DD60DD65BC}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,7 +137,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>야구공포수1-방사형8발</t>
+    <t>방사 상하좌우4발 + 대각4발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,7 +151,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>야구공포수2-플레이어조준 기관총</t>
+    <t>플레이어조준 기관총</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Sight</t>
+  </si>
+  <si>
+    <t>플레이어조준 튕김공 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어조준 샷건 1회 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어조준 샷건 3연발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6214BF7A-57C6-4DE6-9A73-734C3611EDE9}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8DCC0796-72B6-4398-A280-BB9224A5A27E}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -383,29 +395,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FD7A209-40BE-4EBD-8208-CF867C57D2F0}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S5" totalsRowShown="0">
-  <autoFilter ref="B2:S5" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0293C784-9800-48D9-BFEE-6C21E14BC16D}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S8" totalsRowShown="0">
+  <autoFilter ref="B2:S8" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{EDA2A827-BD94-4DFA-A8B9-AE6631A3A9B3}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{B9C4B4C2-4830-4151-BAFC-3601623D2D99}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{32886B9E-AF66-4A2A-9F54-113EE3E7A15D}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{DC82B761-8BE5-40F2-9FFF-D788055C6DDF}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{5D6F5756-6C93-4F15-AED7-14834F44391A}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F147D230-4838-4DCB-A93F-83AEE28CD4A9}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0031CFDF-FE02-412B-9533-97FB3D12CBC5}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{1E12F945-6364-46AB-BF0F-27570DC56A72}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{CB5AFBD0-9F16-4C73-AF38-D5DDA896CF8C}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{5EB14580-F215-445A-A020-7005C4C23F05}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{A281EC06-F7C4-460A-9463-B5212F2FC1BA}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{3EF851D8-BC10-4EB0-BF0A-B568F697A587}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{C717F6C9-A258-45B6-8BDD-C33AF748E16C}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{42265B14-3758-4E51-A38B-D19355A0BBA3}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{7DD5CA0A-A6ED-43F4-8A60-6E5F02A2F003}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{E5E2C438-5BD1-4D2D-8863-4C1269FF5A6C}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{AE16A127-166E-4EC7-845B-35448C644488}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{8BB6F8E1-1AA3-4D3C-94F1-04B417D6018C}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{FC8ABCA1-115D-47F6-9F80-79EE3B8F27FB}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{253D5C8F-D5C1-4760-9ABC-DBFD5BAB0BA8}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{74998F43-7D04-451D-990D-C21493F3F2A0}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{D3B55267-FCF5-4270-83DB-2AE0C1F46A73}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{99FA19D7-9F75-4155-994D-DD3EFFD2840A}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{F68AE72F-C1CC-4922-872B-D384C44B1C32}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{DCC5EFD0-440E-4BA8-8F11-4EC3D773F0A1}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{EDA53B25-FF89-4CC7-A29F-1781A62B7082}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{B7F1EF69-75FA-4898-927C-9315D09336BC}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{4234D85F-C898-42AF-A07F-124A2416ED97}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{59300B18-8CB1-404F-BEB7-A17F18FD3CCE}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{377B9030-BA07-4F64-8416-317A96F6A841}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{C7103251-ED66-48E5-BF28-7FFA9B34749F}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{90A95BFE-491A-4926-B85F-2A17FF3FC378}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{F1FDD607-704A-4BDE-8724-41E2BF3D5246}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{0A6252CF-7F28-4FD6-AF16-A5D09B60F9FD}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{ABD36FF2-9615-4050-A4F1-BE1AEDB76B72}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{CD73C555-6F1C-4885-915A-0049C296C26A}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -709,14 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17792F1-E584-48FD-8DCF-B911A83F33ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114460E1-B545-41DD-85D8-BCD2EB4EB685}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:S5"/>
+  <dimension ref="B1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -935,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -978,7 +990,7 @@
       </c>
       <c r="D5">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -993,13 +1005,13 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>601</v>
@@ -1020,9 +1032,183 @@
         <v>30</v>
       </c>
       <c r="R5">
+        <v>1.2</v>
+      </c>
+      <c r="S5">
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6">
+        <v>503</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>602</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>501</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="S5">
+      <c r="S6">
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7">
+        <v>504</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>603</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>501</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8">
+        <v>505</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>604</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>501</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>1.2</v>
+      </c>
+      <c r="S8">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BE119E-6705-4D48-8FB8-7A416BD1FF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B16D28-3651-43F4-8F2C-24DE8EC74FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26AEEC68-E3D6-4126-A996-A8DD60DD65BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE5A0574-ED9C-4805-8471-FA946FE0B0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>플레이어조준 샷건 3연발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어조준 3발 3연발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +334,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8DCC0796-72B6-4398-A280-BB9224A5A27E}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C6C4F659-CA32-4D34-B77F-64FEFDA0F27E}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -395,29 +399,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0293C784-9800-48D9-BFEE-6C21E14BC16D}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S8" totalsRowShown="0">
-  <autoFilter ref="B2:S8" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D9E078A-491E-45BD-8E61-015363D9FE99}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S10" totalsRowShown="0">
+  <autoFilter ref="B2:S10" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{DC82B761-8BE5-40F2-9FFF-D788055C6DDF}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{5D6F5756-6C93-4F15-AED7-14834F44391A}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F147D230-4838-4DCB-A93F-83AEE28CD4A9}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{BC0F4A66-99AB-4BB7-816E-7BAC2981AC5F}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{E39FF3E6-F8F7-4767-88B5-1B8CDC04E219}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CB150A43-447F-4ACC-BC7D-61477A6D48AB}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D3B55267-FCF5-4270-83DB-2AE0C1F46A73}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{99FA19D7-9F75-4155-994D-DD3EFFD2840A}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{F68AE72F-C1CC-4922-872B-D384C44B1C32}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{DCC5EFD0-440E-4BA8-8F11-4EC3D773F0A1}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{EDA53B25-FF89-4CC7-A29F-1781A62B7082}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{B7F1EF69-75FA-4898-927C-9315D09336BC}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{4234D85F-C898-42AF-A07F-124A2416ED97}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{59300B18-8CB1-404F-BEB7-A17F18FD3CCE}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{377B9030-BA07-4F64-8416-317A96F6A841}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{C7103251-ED66-48E5-BF28-7FFA9B34749F}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{90A95BFE-491A-4926-B85F-2A17FF3FC378}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{F1FDD607-704A-4BDE-8724-41E2BF3D5246}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{0A6252CF-7F28-4FD6-AF16-A5D09B60F9FD}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{ABD36FF2-9615-4050-A4F1-BE1AEDB76B72}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{CD73C555-6F1C-4885-915A-0049C296C26A}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{B02DAC08-7334-48C5-9C26-7F50EFC2F0DD}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{4D2FD953-180D-476E-81F9-FEAEF3F909F7}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{06994F6F-51FA-4D15-B285-005818ECC38E}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{2C609CFD-D016-4E07-98A0-695D3FABCE13}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{5D2183E4-96F7-40C0-8AB2-65D86A63309F}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{FBBC3C11-6A30-4622-89A8-C8B45E9BED8F}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{26B64F86-106C-48C0-91B4-8994AE3C78D7}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{FF441AA9-FAA0-485D-8CCC-6DD22EC9060D}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{FBCFA81A-3B9E-4E2F-8388-0A69255C9C57}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{109AA66F-A2EE-4132-BAC9-E0075269E0EA}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{5E242535-B759-454E-B9E4-AA1B1340E884}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{208B0ADA-1D5F-40B4-86E2-8F6251361591}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{8F413E68-486A-4522-B609-802FCE6681B6}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{E6D09A9B-C21A-41AE-B7A2-1A3074A3C191}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{9AAB6831-7952-4646-A953-0011C64F3D55}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -721,14 +725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114460E1-B545-41DD-85D8-BCD2EB4EB685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B65188-6878-46CD-BA68-0545BF2B6982}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:S8"/>
+  <dimension ref="B1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -874,7 +878,7 @@
       </c>
       <c r="D3">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -904,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>501</v>
@@ -916,11 +920,11 @@
         <v>26</v>
       </c>
       <c r="R3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S3">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -932,7 +936,7 @@
       </c>
       <c r="D4">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -947,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -974,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S4">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
@@ -990,7 +994,7 @@
       </c>
       <c r="D5">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1005,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>601</v>
@@ -1032,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="R5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
@@ -1048,7 +1052,7 @@
       </c>
       <c r="D6">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -1069,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>602</v>
@@ -1090,7 +1094,7 @@
         <v>30</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S6">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
@@ -1106,7 +1110,7 @@
       </c>
       <c r="D7">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1127,7 +1131,7 @@
         <v>33</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>603</v>
@@ -1148,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S7">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
@@ -1164,7 +1168,7 @@
       </c>
       <c r="D8">
         <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1179,13 +1183,13 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>604</v>
@@ -1206,9 +1210,125 @@
         <v>30</v>
       </c>
       <c r="R8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S8">
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9">
+        <v>506</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>605</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>501</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10">
+        <v>507</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <f>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</f>
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>605</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>501</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <f>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</f>
         <v>4.5</v>
       </c>

--- a/_GameData/EnemyGameData.xlsx
+++ b/_GameData/EnemyGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B16D28-3651-43F4-8F2C-24DE8EC74FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E8A535-A92D-4D51-AF3F-57B0D1710D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE5A0574-ED9C-4805-8471-FA946FE0B0A1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFA8A08B-D6C6-4E9B-9467-06DB393CFD8F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyGameData" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C6C4F659-CA32-4D34-B77F-64FEFDA0F27E}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FB9AFFD1-9558-436D-8604-C4B62DE61366}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -399,29 +399,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D9E078A-491E-45BD-8E61-015363D9FE99}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6E59DB8-B880-40C4-A803-74F2DAE2B41B}" name="EnemyGameData" displayName="EnemyGameData" ref="B2:S10" totalsRowShown="0">
   <autoFilter ref="B2:S10" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{BC0F4A66-99AB-4BB7-816E-7BAC2981AC5F}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{E39FF3E6-F8F7-4767-88B5-1B8CDC04E219}" name="#이름" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CB150A43-447F-4ACC-BC7D-61477A6D48AB}" name="MaxHp">
+    <tableColumn id="2" xr3:uid="{9B930E42-E085-4E86-90B3-261948BF965A}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{3820A76C-94D1-409B-AA46-C758B4B53817}" name="#이름" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F8C83563-AC07-46B6-AAFC-D406F5804895}" name="MaxHp">
       <calculatedColumnFormula>[1]!표14[적 기준 체력]*EnemyGameData[[#This Row],['#기준 적 체력 비율]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B02DAC08-7334-48C5-9C26-7F50EFC2F0DD}" name="MoveType"/>
-    <tableColumn id="5" xr3:uid="{4D2FD953-180D-476E-81F9-FEAEF3F909F7}" name="SpacingRad"/>
-    <tableColumn id="6" xr3:uid="{06994F6F-51FA-4D15-B285-005818ECC38E}" name="MoveTargetUpdatePeroid"/>
-    <tableColumn id="7" xr3:uid="{2C609CFD-D016-4E07-98A0-695D3FABCE13}" name="MovementSpd"/>
-    <tableColumn id="14" xr3:uid="{5D2183E4-96F7-40C0-8AB2-65D86A63309F}" name="AtkCheckDelay"/>
-    <tableColumn id="8" xr3:uid="{FBBC3C11-6A30-4622-89A8-C8B45E9BED8F}" name="AtkStartType"/>
-    <tableColumn id="9" xr3:uid="{26B64F86-106C-48C0-91B4-8994AE3C78D7}" name="AtkStartParam"/>
-    <tableColumn id="10" xr3:uid="{FF441AA9-FAA0-485D-8CCC-6DD22EC9060D}" name="AtkDataId"/>
-    <tableColumn id="11" xr3:uid="{FBCFA81A-3B9E-4E2F-8388-0A69255C9C57}" name="DeadAtkDataId"/>
-    <tableColumn id="12" xr3:uid="{109AA66F-A2EE-4132-BAC9-E0075269E0EA}" name="GoldDropMin"/>
-    <tableColumn id="13" xr3:uid="{5E242535-B759-454E-B9E4-AA1B1340E884}" name="GoldDropMax"/>
-    <tableColumn id="16" xr3:uid="{208B0ADA-1D5F-40B4-86E2-8F6251361591}" name="ProjectileDataId"/>
-    <tableColumn id="18" xr3:uid="{8F413E68-486A-4522-B609-802FCE6681B6}" name="PrefabPath"/>
-    <tableColumn id="15" xr3:uid="{E6D09A9B-C21A-41AE-B7A2-1A3074A3C191}" name="#기준 적 체력 비율"/>
-    <tableColumn id="17" xr3:uid="{9AAB6831-7952-4646-A953-0011C64F3D55}" name="#평균 드랍 골드" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{098A2349-FF5C-4EF0-8A10-B6EAF569E8CB}" name="MoveType"/>
+    <tableColumn id="5" xr3:uid="{672F05F1-68E9-4936-B33E-40FC0A7D26D5}" name="SpacingRad"/>
+    <tableColumn id="6" xr3:uid="{2EDA3AC5-6553-407B-9F3E-98A5F0D5CD41}" name="MoveTargetUpdatePeroid"/>
+    <tableColumn id="7" xr3:uid="{2CDE4816-07C0-4E32-9F11-6907D1F5862E}" name="MovementSpd"/>
+    <tableColumn id="14" xr3:uid="{526365EC-962E-4FD0-8700-58B326221FE8}" name="AtkCheckDelay"/>
+    <tableColumn id="8" xr3:uid="{79B14BC0-398C-48F1-A7CD-85E49A5CC94B}" name="AtkStartType"/>
+    <tableColumn id="9" xr3:uid="{77F59E0C-3D01-435A-A47D-39259E4C2495}" name="AtkStartParam"/>
+    <tableColumn id="10" xr3:uid="{1244E1CF-8CFC-40CA-B9A2-11314A700922}" name="AtkDataId"/>
+    <tableColumn id="11" xr3:uid="{D597767A-1CAB-4201-9168-8C7714473A81}" name="DeadAtkDataId"/>
+    <tableColumn id="12" xr3:uid="{120B0D21-1023-470C-ADF8-9ED8CBAA3222}" name="GoldDropMin"/>
+    <tableColumn id="13" xr3:uid="{4A10384B-CF5E-49A8-8D07-B9FC86A98589}" name="GoldDropMax"/>
+    <tableColumn id="16" xr3:uid="{023E1A71-4D97-4299-8A67-47C63916E917}" name="ProjectileDataId"/>
+    <tableColumn id="18" xr3:uid="{9F18F7CB-9FD9-4197-B833-2DD069196BCC}" name="PrefabPath"/>
+    <tableColumn id="15" xr3:uid="{8D87A81C-2CB3-45CD-854C-DF193DC1387D}" name="#기준 적 체력 비율"/>
+    <tableColumn id="17" xr3:uid="{95A24A06-B6F1-4590-8303-117962E37911}" name="#평균 드랍 골드" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(EnemyGameData[[#This Row],[GoldDropMin]],EnemyGameData[[#This Row],[GoldDropMax]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -725,14 +725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B65188-6878-46CD-BA68-0545BF2B6982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E321670-92C3-4732-9C76-5EC9833BB0A4}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>28</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1000,10 +1000,10 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1058,10 +1058,10 @@
         <v>28</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1116,10 +1116,10 @@
         <v>28</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1174,10 +1174,10 @@
         <v>28</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1232,10 +1232,10 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1290,10 +1290,10 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H10">
         <v>2</v>
